--- a/QnAMaker KB Exports/fd06b9d9-caa9-4d21-836d-463a1dcf9f01-KB.xlsx
+++ b/QnAMaker KB Exports/fd06b9d9-caa9-4d21-836d-463a1dcf9f01-KB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmoyer\Free For Charity\Microsoft QnA Bot - General\QnAMaker KB Exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_4F97DE747E68E91AF192CEDF645F93DFE4BE6C8E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4EB3C68E-8CC8-423A-B8A4-6739F1561A0B}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_DBB7BF46592EA41FAF92DB53DCEF6EFF9C789571" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2F9E089D-91A2-4631-8F4D-36444D094FB0}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
   <si>
     <t>Question</t>
   </si>
@@ -46,13 +46,13 @@
     <t>QnaId</t>
   </si>
   <si>
-    <t>Why Margie’s Travel?</t>
-  </si>
-  <si>
-    <t>Margie’s Travel is a full-service travel agent, with years of experience in the worldwide tourism industry.</t>
-  </si>
-  <si>
-    <t>https://github.com/MicrosoftDocs/ai-fundamentals/raw/master/data/qna_bot/margies_faq.docx</t>
+    <t>Why do charities pay for items they can get for free?</t>
+  </si>
+  <si>
+    <t>The first reaction to uncovering these issues with the board was anger. The museum was losing or wasting thousands each year; money that could be used to keep admission prices lower and serve more children! After a deeper look it all came back to training and experience. Most charity founders and directors of small and medium charities are trained in the specialty of the charities mission, in this case child education and development. It is unreasonable to expect every charity director to be up to date on all procurement management methods and the technology that supports business and still run the day-to-day mission. This is where free for charity will come in to help your charities projects to thrive.</t>
+  </si>
+  <si>
+    <t>freeforcharity Help For Charities QnA Master List.docx</t>
   </si>
   <si>
     <t/>
@@ -64,220 +64,106 @@
     <t>False</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>What services do you provide?</t>
-  </si>
-  <si>
-    <t>Margie’s Travel can help arrange flights, accommodation, airport transfers, excursions, visas, travel insurance, and currency exchange.</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>What destinations do you offer?</t>
-  </si>
-  <si>
-    <t>We can arrange travel anywhere in the world, but we specialize in trips to Dubai, Las Vegas, London, New York, and San Francisco.</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>How can I book a flight?</t>
-  </si>
-  <si>
-    <t>Our agents can help you book flights between any major airports, on any of the major airlines. We offer competitive fares for all flight classes. To book a flight, call us on 555 123 456; or visit our website: www.margiestravel.com.</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>How can I reserve a hotel?</t>
-  </si>
-  <si>
-    <t>We partner with the best independent hotels all across the world and can arrange accommodation that suits your needs and budget. From small boutique five-star luxury resorts, we’ve got the right hotel for you. To reserve a hotel, call us on 555 123 456; or visit our website: www.margiestravel.com.</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>How do I cancel a flight or hotel?</t>
-  </si>
-  <si>
-    <t>You can cancel a flight or hotel anytime up to 24 hours before check-in. A cancellation fee may apply. Call us on 555 123 456; or visit our website: [www.margiestravel.com](http://www.margiestravel.com) .</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Can you arrange travel insurance?</t>
-  </si>
-  <si>
-    <t>Margie’s Travel partners with Humongous Insurance Corp. to provide travel insurance at competitive rates.</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>What are your office hours?</t>
-  </si>
-  <si>
-    <t>Our agents are available by phone on 555 123 456 Monday to Friday from 8:00am to 6:00pm PST . You get help on our website at www.margiestravel.com 24x7.</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>Is there a need for a charity to provide help for charities?</t>
-  </si>
-  <si>
-    <t>Yes there is a need to provide help for charities in many ways! **Free for Charity is not the only ‘charity for charities’ helping to lower your costs.** Another great charity showing all the big name things you can get for free or at heavy discounts is [TechSoup.org](http://www.techsoup.org/ "TechSoup.org"). **Even with these other sites m****any charities and non profits still ****pay for profit companies to do work every day or buy products at full cost.** Some do so without knowing that as a charity they qualify for lower rates or even free services from major companies. Others because **it is hard to find the free products needed though the massive amount of paid marketing by well-funded for profit companies.**\n\nThe Free for Charity services, consultant, and technology products directories seeks to fix this problem with our motto “Decisions should be made by metrics not marketing.”</t>
-  </si>
-  <si>
-    <t>https://freeforcharity.org/help-for-charities/#more-226</t>
-  </si>
-  <si>
-    <t>138</t>
+    <t>153</t>
+  </si>
+  <si>
+    <t>How do you provide your program services?</t>
+  </si>
+  <si>
+    <t>We provide help for charities with efficiency. One element of efficiency is getting the best product at the lowest price. For charities and non profits much more labor can be provided for free by volunteers. Free for Charity does not make your full-time staff take on more and more roles we can fully take over many of these tasks with expert volunteer labor. Business and IT professionals are always seeking to advance their skills while helping out charities. We capture this labor pool (or create it with training programs) and then manage the volunteers for your charities tasks and projects. We can do this at extremely low if not zero cost because of economies of scale, and because most of this work is process or research based and does not have ‘hard’ costs like equipment.</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>What do I need to get started?</t>
+  </si>
+  <si>
+    <t>All you need to do to get free for charity to provide help for your charities mission today is to contact us with some basic information about your charity. We need to know what type of projects that you would like us to look at or undertake. Please fill out the form below and we will be in touch shortly.</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>What services do you provide</t>
+  </si>
+  <si>
+    <t>Hello, Free For Charity provides many different services, but they vary greatly depending on whether you are an individual or an organization, and what your organizations status is or your individual role. Please select from the below for more info.\n\nServices for Individuals\n\nFree for Charity was originally founded with an educational mission to assist nonprofits with technical and business skills. The primary method of accomplishing this is to train individuals both those that work for the nonprofit as well as external individuals who want to make a difference. We continue to provide training programs across multiple core technologies that support our nonprofit partners. Choose from the options below to learn more about them.\n\nWeb development\nWe have provided full stack web hosting and development to over 100 supported nonprofits since our founding. We will support individuals in learning how to provide the most benefit to nonprofits with missions that you care about. If you are interested in signing up as a skilled volunteer or to enroll in one of our learning programs to become a skilled volunteer visit our volunteer signup page ( [https://freeforcharity.org/volunteer-or-donate-to-free-for-charity/](https://freeforcharity.org/volunteer-or-donate-to-free-for-charity/) ) or call our volunteer manager Christopher Rae: (520) 442-3556.\n\nGraphic Design\nEach new charity in roles in our system always seems to need some form of graphic design support. We provide everything from basic logos to stationary and end-of-the-year report templates that help hours supported nonprofits look more professional and engage more effectively with their constituents. If you are interested in signing up as a skilled volunteer or to enroll in one of our learning programs to become a skilled volunteer visit our volunteer signup page ( [https://freeforcharity.org/volunteer-or-donate-to-free-for-charity/](https://freeforcharity.org/volunteer-or-donate-to-free-for-charity/) ) or call our volunteer manager Christopher Rae: (520) 442-3556.\n\nArtificial Intelligence\nOne of our newest offerings is supporting nonprofits in utilizing Machine Learning and Artificial Intelligence particularly those services provided by Microsoft through the nonprofit grant system. If you are on the cutting edge of AI/ML or want to learn more about these technologies and support nonprofits at the same time visit our volunteer signup page ( [https://freeforcharity.org/volunteer-or-donate-to-free-for-charity/](https://freeforcharity.org/volunteer-or-donate-to-free-for-charity/) ) or call our volunteer manager Christopher Rae: (520) 442-3556.\n\nBusiness Services\nNonprofits are still legally corporations within the United States and as such have all the same requirements and in some cases more than a traditional business. We help to support nonprofits and charities with these business responsibilities through application of both technology and non-technological business support. If you are interested in signing up as a skilled volunteer or to enroll in one of our learning programs to become a skilled volunteer visit our volunteer signup page ( [https://freeforcharity.org/volunteer-or-donate-to-free-for-charity/](https://freeforcharity.org/volunteer-or-donate-to-free-for-charity/) ) or call our volunteer manager Christopher Rae: (520) 442-3556.\n\nOther\nWe are always seeking new ways to make nonprofits better. If you have a skill set not otherwise defined and If you are interested in signing up as a skilled volunteer visit our volunteer signup page ( [https://freeforcharity.org/volunteer-or-donate-to-free-for-charity/](https://freeforcharity.org/volunteer-or-donate-to-free-for-charity/) ) or call our volunteer manager Christopher Rae: (520) 442-3556.\n\nServices for Not-For-Profit, Nonprofits, and Charitable Activities That Are Pre IRS 510c3 Status\n\nFree For Charity is one of the few organizations that provide support to Non-501c(3) organizations. FFC recognizes that all IRS 501c3 nonprofits started out as unrecognized organizations. It is in this vulnerable period, normally the first year of operation where organizations do not qualify for support from major companies such as Google or Microsoft and organizations are at the highest risk of being preyed on by for-profit consultants or businesses. While not all our services are available before your organization has its status our consulting service, and our free WordPress website / domain name service is available. Select each to learn more.\n\nFree For Charity Consulting\nAs simple or complex as it needs to be. No matter where you are at in the process of forming your charity; we will discuss your options and find ways to reduce your organizations costs. As we are a free service however we do require organizations to be at a certain level of commitment and formalization so that we can best apply our limited resources. If you are interested in unlocking all of the different services available to your charitable activity, please submit a formal request through our support system ( [https://ffchosting.org/hub/cart.php?a=add&amp;pid=16](https://ffchosting.org/hub/cart.php?a=add&amp;pid=16) ).\n\nServices for Fully IRS Approved 501C3 Charities &amp; Nonprofits\n\nOur first and best-known service is free domain names and WordPress website hosting for nonprofit and charity organizations. Since our founding we have added many additional services including location management services, social media services, and general consulting.</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>What is the difference between a nonprofit and charity?</t>
+  </si>
+  <si>
+    <t>A nonprofit and a charity are often considered the same thing. The primary differentiator is there are many different types of organizations that can be nonprofit including organizations who have no legal status but operate without a profit motive. Charities however almost always refer to an organization with recognized legal status at both the state and federal level as a nonprofit organization.</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>Why Free For Charity?</t>
+  </si>
+  <si>
+    <t>Free for Charity has a simple mission with broad implications.\n\nReduce costs and increase revenues for nonprofits; putting that money back into their charitable mission where it belongs. As a nonprofit ourselves we understand what small organizations need and how we can help. Reach out to us and let us prove our worth to your organization.</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>What are your office hours?</t>
+  </si>
+  <si>
+    <t>Free For Charity operates from multiple sites and in multiple US time zones however we do have a limited staff and do not accept walk-ins. We can generally be reached seven days a week between 7 AM and 7 PM in US time zones.  Our preferred method of contact is via bot (Bot direct URL) or support requests ( [https://ffchosting.org/hub](https://ffchosting.org/hub) ) so that the appropriate resource can be alerted. If you are currently supported by Free For Charity and are having an emergency please call Clarke Moyer the founder at 520-222-8104 . If it is not an emergency you can get information and other contact information on our website at ( [https://freeforcharity.org](https://freeforcharity.org) ) 24x7.\n\nCharity / Nonprofit Director FAQ</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>Is there a need for a charity to provide help for charities?</t>
+  </si>
+  <si>
+    <t>Yes there is a need to provide help for charities in many ways! Free for Charity is not the only ‘charity for charities’ helping to lower your costs. Another great charity showing all the big name things you can get for free or at heavy discounts is [TechSoup.org](http://www.techsoup.org/) . Even with these other sites many charities and non profits still pay for profit companies to do work every day or buy products at full cost. Some do so without knowing that as a charity they qualify for lower rates or even free services from major companies. Others because it is hard to find the free products needed though the massive amount of paid marketing by well-funded for profit companies.\n\nThe Free for Charity services, consultant, and technology products directories seeks to fix this problem with our motto “Decisions should be made by metrics not marketing.”</t>
+  </si>
+  <si>
+    <t>160</t>
   </si>
   <si>
     <t>Where did the idea come from?</t>
   </si>
   <si>
-    <t>Free for charity was started when the founder first started as a board member on the local children’s museum’s board of directors. In just a few short weeks he uncovered **many items the museum was paying for that were free to charities but the museum was paying for anyways**.\n\nIn addition, for big projects the museum was **not following any procurement management procedures at all. **Items such as quoting from multiple vendors before a bid or cross leveling the bids for price and quality were not being done.\n\nOther issues found were the **reliance on outdated technology because better alternatives were not known** to the **non IT trained staff**.</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>Why do charities pay for items they can get for free?</t>
-  </si>
-  <si>
-    <t>The first reaction to uncovering these issues with the board was anger.** The museum was losing or wasting thousands each year**; money that could be used to keep admission prices lower and serve more children! After a deeper look **it all came back to training and experience**. Most charity founders and directors of small and medium charities are trained in the specialty of the charities mission, in this case child education and development. **It is unreasonable to expect every charity director to be up to date on all procurement management methods and the technology that supports business and still run the day-to-day mission**. This is where free for charity will come in to help your charities projects to thrive.</t>
-  </si>
-  <si>
-    <t>140</t>
+    <t>Free for charity was started when the founder first started as a board member on the local children’s museum’s board of directors. In just a few short weeks he uncovered many items the museum was paying for that were free to charities, but the museum was paying for anyways .In addition, for big projects the museum was not following any procurement management procedures at all. Items such as quoting from multiple vendors before a bid or cross leveling the bids for price and quality were not being done.Other issues found were the reliance on outdated technology because better alternatives were not known to the non IT trained staff .</t>
+  </si>
+  <si>
+    <t>161</t>
   </si>
   <si>
     <t>Where does Free for Charity come in to help our charity or nonprofit?</t>
   </si>
   <si>
-    <t>Free for Charity will fill these vital roles for non profits and charities saving money for real program expenses. **Most small to medium charities do not have the budget for full-time IT staff or business analysts like for profit companies and large charities**. This is because grant managers and large **donors want to see the lowest cost to “overhead”** and don’t always look closely at the results that fall under program expenses.\n\nBecause of this common practice by large donors and grant institutions it is **actually better for a small charity to waste money due to mismanagement** such as by **paying for something they could get for free** because the item is put on the books as a ‘program expense’ and not questioned. Program expenses do not count against the charity like “overhead” does.\n\nPaying someone on the non program admin staff or the director of the charity to research and call companies for discounts is a labor cost that counts as “overhead” because it helps more than one program. **With free for charity doing the work the target charity does not have to claim costs for overhead.** Your nonprofit or charity group will gain access to professionals that have more expertise with the common business tasks like researching products to meet the charities needs. **Free for Charity will also show you recommended technology and business practices that can save thousands each year.**</t>
-  </si>
-  <si>
-    <t>141</t>
+    <t>Free for Charity will fill these vital roles for non profits and charities saving money for real program expenses. Most small to medium charities do not have the budget for full-time IT staff or business analysts like for profit companies and large charities . This is because grant managers and large donors want to see the lowest cost to “overhead” and don’t always look closely at the results that fall under program expenses.Because of this common practice by large donors and grant institutions it is actually better for a small charity to waste money due to mismanagement such as by paying for something they could get for free because the item is put on the books as a ‘program expense’ and not questioned. Program expenses do not count against the charity like “overhead” does.Paying someone on the non program admin staff or the director of the charity to research and call companies for discounts is a labor cost that counts as “overhead” because it helps more than one program. With free for charity doing the work the target charity does not have to claim costs for overhead. Your nonprofit or charity group will gain access to professionals that have more expertise with the common business tasks like researching products to meet the charities needs. Free for Charity will also show you recommended technology and business practices that can save thousands each year.</t>
+  </si>
+  <si>
+    <t>162</t>
   </si>
   <si>
     <t>How can I tell if we have high overhead? / My charity does not have high overhead!</t>
   </si>
   <si>
-    <t>Free for Charity is all about efficiency. **Many charities ‘fix’ this overhead problem by treating all staff as working on / in the programs or pro-rating between them all and hoping they will not get audited.** While on paper you show very low overhead the functional effect is still the same. **You have high paid staff like a director doing work that should be done by skilled volunteers or technology.** Items such as your nonprofit or charity group bookkeeping data entry, or a full-time employee who updates the charity website or nonprofit Facebook page every now and then between front desk tasks.\n\nIf you have ever seen a charity with lower than 5% over head this is mostly what is going on. If you have low recorded overhead then **your charity is most likely not using experts for tasks and all staff are wearing many hats; most of which they were never trained in.**</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>How do you provide your program services?</t>
-  </si>
-  <si>
-    <t>We provide help for charities with efficiency. One element of efficiency is getting the **best product at the lowest price**. For charities and non profits **much more labor can be provided for free by volunteers**. Free for Charity does not make your full-time staff take on more and more roles **we can fully take over many of these tasks with expert volunteer labor**. Business and IT professionals are always seeking to advance their skills while helping out charities. We capture this labor pool (or create it with training programs) and then manage the volunteers for your charities tasks and projects. **We can do this at extremely low if not zero cost because of economies of scale, and because most of this work is process or research based and does not have ‘hard’ costs like equipment**.</t>
-  </si>
-  <si>
-    <t>143</t>
+    <t>Free for Charity is all about efficiency. Many charities ‘fix’ this overhead problem by treating all staff as working on / in the programs or pro-rating between them all and hoping they will not get audited. While on paper you show very low overhead the functional effect is still the same. You have high paid staff like a director doing work that should be done by skilled volunteers or technology. Items such as your nonprofit or charity group bookkeeping data entry, or a full-time employee who updates the charity website or nonprofit Facebook page every now and then between front desk tasks.If you have ever seen a charity with lower than 5% over head this is mostly what is going on. If you have low recorded overhead then your charity is most likely not using experts for tasks and all staff are wearing many hats; most of which they were never trained in.</t>
+  </si>
+  <si>
+    <t>163</t>
   </si>
   <si>
     <t>Are you like volunteermatch.org or other matching agencies?</t>
   </si>
   <si>
-    <t>Not exactly. That type of charity matches workers with charities but then **leaves the management of the work to the individual** nonprofit or charity group. **Many small and medium charities do not have the time to manage a volunteer or group of volunteers**. Even charities with a volunteer coordinator who works with entry level volunteers may not have the skills to manage highly technical or high level business volunteers such as those with MBA’s or decades in high level information technology. **This can result in your best volunteers leaving before a project is completed.**\n\n**Free for Charity will manage both the work and the results of the projects in-house. All you have to do as a charity is to work with your project manager to set expectations and define results at each stage of the project**.\n\nWe also provide many physical services like **nonprofit websites and hosting **that are functionally like a product to your charity. **We manage all the functions in the background with volunteers**. With these other sites you get one person assigned to work your web project and you have no management support once it is done unless that one person stays on as a volunteer permanently. **With Free for Charity if your initial volunteer leaves another from the web team still works on your project** and keeps your websites running and maintained. This is just one example.</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>What do I need to get started?</t>
-  </si>
-  <si>
-    <t>All you need to do to get free for charity to provide help for your charities mission today is to contact us with some basic information about your charity. We need to know what type of projects that you would like us to look at or undertake. Please fill out the form below and we will be in touch shortly.\n\n[contact-form-7 404 "Not Found"]\n\n### Share this:\n\n*   [Facebook](https://freeforcharity.org/help-for-charities/?share=facebook&amp;nb=1 "Click to share on Facebook")\n\n*   [Twitter](https://freeforcharity.org/help-for-charities/?share=twitter&amp;nb=1 "Click to share on Twitter")\n\n*   [LinkedIn](https://freeforcharity.org/help-for-charities/?share=linkedin&amp;nb=1 "Click to share on LinkedIn")\n\n*   [More](#)\n\n*   [Email](https://freeforcharity.org/help-for-charities/?share=email&amp;nb=1 "Click to email this to a friend")\n\n*   [Reddit](https://freeforcharity.org/help-for-charities/?share=reddit&amp;nb=1 "Click to share on Reddit")\n\n*   [Tumblr](https://freeforcharity.org/help-for-charities/?share=tumblr&amp;nb=1 "Click to share on Tumblr")\n\n*   [Pinterest](https://freeforcharity.org/help-for-charities/?share=pinterest&amp;nb=1 "Click to share on Pinterest")\n\n*   [Pocket](https://freeforcharity.org/help-for-charities/?share=pocket&amp;nb=1 "Click to share on Pocket")\n\n*   [Print](https://freeforcharity.org/help-for-charities/#print "Click to print")</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>How can you afford to give away free domain names?</t>
-  </si>
-  <si>
-    <t>As a 501(c)3 charity ourselves we seek individual, business, and grant sources of funding. At current free for charity has not received a grant specifically for domain names but uses individual and business contributions to fund this domain name program.</t>
-  </si>
-  <si>
-    <t>https://ffchosting.org</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>Are you really a Charity?</t>
-  </si>
-  <si>
-    <t>Yes, We have had IRS designation since 2014 and have been building our systems and testing or support for several years. While charities for charities are rare they do exist and in fact fill an important need in reducing overhead expenses for other nonprofits. Our IRS designation number (EIN) is 46-2471893.  You can see our guidestar profile\n[here](https://www.guidestar.org/profile/46-2471893)\n\n**. **\n\nWe are proud to also recommend other charities for charities that inspired us to\n[create this nonprofit](http://www.techsoup.org/)\n\n.</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>If I am an individual or business and donate money for a domain package to Free for Charity is this tax-deductible?</t>
-  </si>
-  <si>
-    <t>While any official tax guidance should come from your accountant or other tax advisor Free For Charity is a registered 501(c)(3) organization and donations are tax-deductible. Our IRS designation number (EIN) is 46-2471893.  Upon checkout you will receive a receipt to provide to your accountant. Specifically, if you represent a business you can elect to deduct this as an expense versus as a donation depending on the guidance of your tax advisor.</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>Where do you get your domain name packages?</t>
-  </si>
-  <si>
-    <t>We are a registered reseller of eNom domain names. eNom has graciously provided us with a Platinum account to support other non profits providing the lowest cost domain names for a charity of our size. As we get more and more charities into the domain system we expect the costs to freeforchariy.org to drop even further.</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>Why do I not see hosting as an option?</t>
-  </si>
-  <si>
-    <t>At current we have enough fully supported charities and are only selling domain names with included security and email forwarding. Please select an option above to get started with your domain name package. Existing for profit supporters and supported charities are the first to be reached out to when hosting or other types of support opportunities become available. We process at least 1 new charity into the full hosting system per week.</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>Hello, Our bot would love to help you.;</t>
-  </si>
-  <si>
-    <t>Editorial</t>
-  </si>
-  <si>
-    <t>[{"DisplayOrder":0,"QnaId":152,"DisplayText":"Charity / Nonprofit looking for help"}]</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>Hi</t>
-  </si>
-  <si>
-    <t>What can we help you with? </t>
-  </si>
-  <si>
-    <t>I am a non profit looking for help.</t>
-  </si>
-  <si>
-    <t>152</t>
+    <t>Not exactly. That type of charity matches workers with charities but then leaves the management of the work to the individual nonprofit or charity group. Many small and medium charities do not have the time to manage a volunteer or group of volunteers . Even charities with a volunteer coordinator who works with entry level volunteers may not have the skills to manage highly technical or high level business volunteers such as those with MBA’s or decades in high level information technology. This can result in your best volunteers leaving before a project is completed.Free for Charity will manage both the work and the results of the projects in-house. All you have to do as a charity is to work with your project manager to set expectations and define results at each stage of the project .We also provide many physical services like nonprofit websites and hosting that are functionally like a product to your charity. We manage all the functions in the background with volunteers . With these other sites you get one person assigned to work your web project and you have no management support once it is done unless that one person stays on as a volunteer permanently. With Free for Charity if your initial volunteer leaves another from the web team still works on your project and keeps your websites running and maintained. This is just one example.</t>
+  </si>
+  <si>
+    <t>164</t>
   </si>
 </sst>
 </file>
@@ -1118,14 +1004,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="104.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1370,7 +1260,7 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1385,18 +1275,18 @@
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1411,18 +1301,18 @@
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -1437,18 +1327,18 @@
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -1463,319 +1353,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +1523,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0397FA2C-A707-4E61-A0AE-0E15F7F0FCAA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BC6668-C605-4C9C-A9B7-8B6364508C1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -1953,7 +1531,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D12027B-6D01-4795-B882-D859692133EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99FB4F6B-F112-4E82-AA52-793C529E3B8B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1971,7 +1549,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDFB0C91-020E-4419-8C94-245DC309A5EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA46D0B3-52F1-4283-AE9C-F53B1059426A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
